--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -458,181 +458,181 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALPHABET</t>
+          <t>RIO TINTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GOGL35</t>
+          <t>RIOT34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>RIO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.4708140119187121</v>
+        <v>-0.5447523223119788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TAIWANSMFAC</t>
+          <t>TRANSOCEAN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TSMC34</t>
+          <t>RIGG34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>RIG</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.5726749073319297</v>
+        <v>-0.6703902121639658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STAG INDUSTR</t>
+          <t>TAKE-TWO INT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S2TA34</t>
+          <t>T1TW34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STAG</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.6380705826842998</v>
+        <v>-0.7653485443879617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NASDAQ INC</t>
+          <t>APARTMENT IN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N1DA34</t>
+          <t>A1IV34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>AIV</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.9643598227730763</v>
+        <v>-0.8521755733013379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REALTY INCOM</t>
+          <t>ASTRAZENECA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R1IN34</t>
+          <t>A1ZN34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.9735132733248975</v>
+        <v>-0.9205153214618988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CARNIVAL COR</t>
+          <t>SIMON PROP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C1CL34</t>
+          <t>SIMN34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-1.022943892404783</v>
+        <v>-0.9686776310154528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RIO TINTO</t>
+          <t>BROADCOM INC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RIOT34</t>
+          <t>AVGO34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.122882945746824</v>
+        <v>-1.009292077988107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NEWMONT GOLD</t>
+          <t>STARBUCKS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N1EM34</t>
+          <t>SBUB34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1.661800746681365</v>
+        <v>-1.103339929046342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SONY GROUP</t>
+          <t>NEWMONT GOLD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SNEC34</t>
+          <t>N1EM34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-2.32961928514851</v>
+        <v>-1.270165333480691</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-8.426008356880629</v>
+        <v>-11.8234537568278</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -458,181 +458,181 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RIO TINTO</t>
+          <t>REALTY INCOM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RIOT34</t>
+          <t>R1IN34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.5447523223119788</v>
+        <v>-0.4641070037232566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRANSOCEAN</t>
+          <t>ALPHABET</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RIGG34</t>
+          <t>GOGL35</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RIG</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6703902121639658</v>
+        <v>-0.501280730586906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TAKE-TWO INT</t>
+          <t>APPLIED MATE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T1TW34</t>
+          <t>A1MT34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.7653485443879617</v>
+        <v>-0.5222375091369003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APARTMENT IN</t>
+          <t>NEXTERA ENER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A1IV34</t>
+          <t>NEXT34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AIV</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.8521755733013379</v>
+        <v>-0.5230118684921763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASTRAZENECA</t>
+          <t>ARCHER DANIE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A1ZN34</t>
+          <t>A1DM34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.9205153214618988</v>
+        <v>-0.6513847875212377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SIMON PROP</t>
+          <t>CARNIVAL COR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SIMN34</t>
+          <t>C1CL34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.9686776310154528</v>
+        <v>-0.6544248838654312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROADCOM INC</t>
+          <t>SIMON PROP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AVGO34</t>
+          <t>SIMN34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.009292077988107</v>
+        <v>-0.7755244707295788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>LILLY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SBUB34</t>
+          <t>LILY34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1.103339929046342</v>
+        <v>-0.9036520457891299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NEWMONT GOLD</t>
+          <t>SL GREEN REA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N1EM34</t>
+          <t>S1LG34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>SLG</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1.270165333480691</v>
+        <v>-3.679426951881396</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-11.8234537568278</v>
+        <v>-6.457939093605091</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -458,201 +458,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REALTY INCOM</t>
+          <t>UNITEDHEALTH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R1IN34</t>
+          <t>UNHH34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.4641070037232566</v>
+        <v>-0.6280224698233141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALPHABET</t>
+          <t>JPMORGAN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GOGL35</t>
+          <t>JPMC34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.501280730586906</v>
+        <v>-0.6885554364074693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APPLIED MATE</t>
+          <t>FREEPORT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A1MT34</t>
+          <t>FCXO34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.5222375091369003</v>
+        <v>-0.711534453853794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NEXTERA ENER</t>
+          <t>LILLY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NEXT34</t>
+          <t>LILY34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.5230118684921763</v>
+        <v>-0.8651402684685365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ARCHER DANIE</t>
+          <t>TAKE-TWO INT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A1DM34</t>
+          <t>T1TW34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADM</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.6513847875212377</v>
+        <v>-1.144787539602476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CARNIVAL COR</t>
+          <t>SONY GROUP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C1CL34</t>
+          <t>SNEC34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.6544248838654312</v>
+        <v>-1.260023449485743</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SIMON PROP</t>
+          <t>ALPHABET</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIMN34</t>
+          <t>GOGL35</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.7755244707295788</v>
+        <v>-1.459822314067829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LILLY</t>
+          <t>CARNIVAL COR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LILY34</t>
+          <t>C1CL34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.9036520457891299</v>
+        <v>-1.577081360218017</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SL GREEN REA</t>
+          <t>BNY MELLON</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S1LG34</t>
+          <t>BONY34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SLG</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-3.679426951881396</v>
+        <v>-2.541127104064799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIRST SOLAR</t>
+          <t>STARBUCKS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FSLR34</t>
+          <t>SBUB34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-6.457939093605091</v>
+        <v>-6.685047525665141</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -458,201 +458,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UNITEDHEALTH</t>
+          <t>TRANSOCEAN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UNHH34</t>
+          <t>RIGG34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>RIG</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6280224698233141</v>
+        <v>-0.641195592575059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JPMORGAN</t>
+          <t>STAG INDUSTR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JPMC34</t>
+          <t>S2TA34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>STAG</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6885554364074693</v>
+        <v>-0.6746286772231542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FREEPORT</t>
+          <t>ALPHABET</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FCXO34</t>
+          <t>GOGL35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.711534453853794</v>
+        <v>-0.69318945952989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LILLY</t>
+          <t>UNILEVER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LILY34</t>
+          <t>ULEV34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>UL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.8651402684685365</v>
+        <v>-0.7490712619401165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TAKE-TWO INT</t>
+          <t>ARCHER DANIE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T1TW34</t>
+          <t>A1DM34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1.144787539602476</v>
+        <v>-1.120537909355335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SONY GROUP</t>
+          <t>FIRST SOLAR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SNEC34</t>
+          <t>FSLR34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-1.260023449485743</v>
+        <v>-1.155915059109248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ALPHABET</t>
+          <t>TAIWANSMFAC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GOGL35</t>
+          <t>TSMC34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.459822314067829</v>
+        <v>-1.300158112006102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CARNIVAL COR</t>
+          <t>TAL EDUCATIO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C1CL34</t>
+          <t>T1AL34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>TAL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1.577081360218017</v>
+        <v>-1.375481875520699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNY MELLON</t>
+          <t>SPOTIFY TECH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BONY34</t>
+          <t>S1PO34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>SPOT</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-2.541127104064799</v>
+        <v>-1.531470157604417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>SL GREEN REA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SBUB34</t>
+          <t>S1LG34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>SLG</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-6.685047525665141</v>
+        <v>-1.616757235584373</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>TOYOTAMO</t>
+    <t>NVIDIA CORP</t>
+  </si>
+  <si>
+    <t>ECOPETROL SA</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>ASTRAZENECA</t>
   </si>
   <si>
     <t>COSTCO</t>
   </si>
   <si>
-    <t>SIBANYE STIL</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
+    <t>COINBASEGLOB</t>
   </si>
   <si>
     <t>PDD HOLDING</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>TMCO34</t>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>E1CO34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>A1ZN34</t>
   </si>
   <si>
     <t>COWC34</t>
   </si>
   <si>
-    <t>S1BS34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
+    <t>C2OI34</t>
   </si>
   <si>
     <t>P1DD34</t>
   </si>
   <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>TM</t>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>AZN</t>
   </si>
   <si>
     <t>COST</t>
   </si>
   <si>
-    <t>SBSW</t>
-  </si>
-  <si>
-    <t>NEM</t>
+    <t>COIN</t>
   </si>
   <si>
     <t>PDD</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>SBUX</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.375434215419773</v>
+        <v>-0.429879438786898</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.3966720397920653</v>
+        <v>-0.4661393853759819</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.5151506256210183</v>
+        <v>-0.527026006981032</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.5329049193449009</v>
+        <v>-0.5274976491928101</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.6766187855300814</v>
+        <v>-0.6207410348433768</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.866283268498222</v>
+        <v>-0.8213272232160591</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.8889979501800553</v>
+        <v>-0.8670085167163748</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.13506189196778</v>
+        <v>-1.021912400513244</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.194096565246582</v>
+        <v>-1.489245412723392</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-2.014059630935662</v>
+        <v>-2.553693671919241</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>NVIDIA CORP</t>
-  </si>
-  <si>
-    <t>ECOPETROL SA</t>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>SALESFOR INC</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>TAL EDUCATIO</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
   </si>
   <si>
     <t>SONY GROUP</t>
   </si>
   <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>ASTRAZENECA</t>
-  </si>
-  <si>
-    <t>COSTCO</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>PDD HOLDING</t>
-  </si>
-  <si>
-    <t>NVDC34</t>
-  </si>
-  <si>
-    <t>E1CO34</t>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>SSFO34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>T1AL34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
   </si>
   <si>
     <t>SNEC34</t>
   </si>
   <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>A1ZN34</t>
-  </si>
-  <si>
-    <t>COWC34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>P1DD34</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>EC</t>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>AVGO</t>
   </si>
   <si>
     <t>SONY</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>AZN</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>PDD</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.429879438786898</v>
+        <v>-0.5523646241417737</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.4661393853759819</v>
+        <v>-0.6059770569227112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.527026006981032</v>
+        <v>-0.6507525153447205</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.5274976491928101</v>
+        <v>-0.6828573773094035</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.6207410348433768</v>
+        <v>-0.7560446316756497</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.8213272232160591</v>
+        <v>-0.7696115119779279</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.8670085167163748</v>
+        <v>-0.8080233741104159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.021912400513244</v>
+        <v>-1.566831084242565</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.489245412723392</v>
+        <v>-1.71011202662703</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-2.553693671919241</v>
+        <v>-2.82202232479176</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
     <t>SALESFOR INC</t>
   </si>
   <si>
-    <t>NEWMONT GOLD</t>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>PALANTIRTECH</t>
+  </si>
+  <si>
+    <t>MERCK</t>
+  </si>
+  <si>
+    <t>TESLA INC</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>PDD HOLDING</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
   </si>
   <si>
     <t>ARCHER DANIE</t>
   </si>
   <si>
-    <t>TAL EDUCATIO</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
     <t>SSFO34</t>
   </si>
   <si>
-    <t>N1EM34</t>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>P2LT34</t>
+  </si>
+  <si>
+    <t>MRCK34</t>
+  </si>
+  <si>
+    <t>TSLA34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>P1DD34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
   </si>
   <si>
     <t>A1DM34</t>
   </si>
   <si>
-    <t>T1AL34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
     <t>CRM</t>
   </si>
   <si>
-    <t>NEM</t>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>SBUX</t>
   </si>
   <si>
     <t>ADM</t>
-  </si>
-  <si>
-    <t>TAL</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>SONY</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.5523646241417737</v>
+        <v>-1.31741939180128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.6059770569227112</v>
+        <v>-1.492487192153931</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.6507525153447205</v>
+        <v>-1.530438411763328</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.6828573773094035</v>
+        <v>-1.57410417086821</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.7560446316756497</v>
+        <v>-2.121592253565723</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.7696115119779279</v>
+        <v>-2.166489481174949</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.8080233741104159</v>
+        <v>-2.248294600677582</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.566831084242565</v>
+        <v>-2.611656545486397</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.71011202662703</v>
+        <v>-3.415293538284459</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-2.82202232479176</v>
+        <v>-6.307095814132481</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>SALESFOR INC</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>PALANTIRTECH</t>
-  </si>
-  <si>
-    <t>MERCK</t>
-  </si>
-  <si>
-    <t>TESLA INC</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>PDD HOLDING</t>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>BLACKROCK</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>MORGAN STAN</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
   </si>
   <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>SSFO34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>P2LT34</t>
-  </si>
-  <si>
-    <t>MRCK34</t>
-  </si>
-  <si>
-    <t>TSLA34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>P1DD34</t>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>BLAK34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>MSBR34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
   </si>
   <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>PDD</t>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>TSM</t>
   </si>
   <si>
     <t>SBUX</t>
-  </si>
-  <si>
-    <t>ADM</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.31741939180128</v>
+        <v>-0.6235612190571374</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.492487192153931</v>
+        <v>-0.6647868291893246</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.530438411763328</v>
+        <v>-0.6893073472104163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.57410417086821</v>
+        <v>-0.7580768945353284</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-2.121592253565723</v>
+        <v>-0.7696446776390076</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-2.166489481174949</v>
+        <v>-0.867687238887811</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-2.248294600677582</v>
+        <v>-1.526918600907806</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.611656545486397</v>
+        <v>-1.828126112166501</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-3.415293538284459</v>
+        <v>-2.100657282904649</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-6.307095814132481</v>
+        <v>-3.04213367808552</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>BLACKROCK</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>MORGAN STAN</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>BLAK34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>MSBR34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>BLK</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>SBUX</t>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>MERCADOLIBRE</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>NETFLIX</t>
+  </si>
+  <si>
+    <t>PEPSICO INC</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>META PLAT</t>
+  </si>
+  <si>
+    <t>APARTMENT IN</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>MELI34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>NFLX34</t>
+  </si>
+  <si>
+    <t>PEPB34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>M1TA34</t>
+  </si>
+  <si>
+    <t>A1IV34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6235612190571374</v>
+        <v>-0.5501975146180484</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.6647868291893246</v>
+        <v>-0.7383140417159453</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.6893073472104163</v>
+        <v>-0.858024250374001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.7580768945353284</v>
+        <v>-0.8832406984677093</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.7696446776390076</v>
+        <v>-0.9186535161143325</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.867687238887811</v>
+        <v>-0.9757011857909674</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.526918600907806</v>
+        <v>-1.484009576813904</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.828126112166501</v>
+        <v>-2.361594217067704</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.100657282904649</v>
+        <v>-2.628238732162572</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-3.04213367808552</v>
+        <v>-3.816263675689697</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>ZOETIS INC</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
     <t>BNY MELLON</t>
   </si>
   <si>
-    <t>MERCADOLIBRE</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>NETFLIX</t>
-  </si>
-  <si>
-    <t>PEPSICO INC</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>META PLAT</t>
-  </si>
-  <si>
-    <t>APARTMENT IN</t>
+    <t>BLOCK INC.</t>
+  </si>
+  <si>
+    <t>CHEVRON</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
   </si>
   <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>GE</t>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>Z1TS34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>B1SA34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
   </si>
   <si>
     <t>BONY34</t>
   </si>
   <si>
-    <t>MELI34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>NFLX34</t>
-  </si>
-  <si>
-    <t>PEPB34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>M1TA34</t>
-  </si>
-  <si>
-    <t>A1IV34</t>
+    <t>S2QU34</t>
+  </si>
+  <si>
+    <t>CHVX34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>GEOO34</t>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>BSAC</t>
+  </si>
+  <si>
+    <t>SPOT</t>
   </si>
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>MELI</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>AIV</t>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
   <si>
     <t>FSLR</t>
+  </si>
+  <si>
+    <t>ADM</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.5501975146180484</v>
+        <v>-0.5989160742683453</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.7383140417159453</v>
+        <v>-0.7576714655151591</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.858024250374001</v>
+        <v>-0.9638202418136643</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.8832406984677093</v>
+        <v>-1.095950512390118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.9186535161143325</v>
+        <v>-1.349155930191046</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.9757011857909674</v>
+        <v>-1.387697522109374</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.484009576813904</v>
+        <v>-1.560384970251462</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.361594217067704</v>
+        <v>-2.034546761016827</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.628238732162572</v>
+        <v>-2.550413903198205</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-3.816263675689697</v>
+        <v>-5.292524337768555</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>ZOETIS INC</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>NOVO NORDISK</t>
   </si>
   <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>BLOCK INC.</t>
-  </si>
-  <si>
-    <t>CHEVRON</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>Z1TS34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>B1SA34</t>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>N1VO34</t>
   </si>
   <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>S2QU34</t>
-  </si>
-  <si>
-    <t>CHVX34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>BSAC</t>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>NVO</t>
   </si>
   <si>
     <t>SPOT</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>ADM</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.5989160742683453</v>
+        <v>-0.6228254616581665</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.7576714655151591</v>
+        <v>-0.7804460819243104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.9638202418136643</v>
+        <v>-0.8072728962101507</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.095950512390118</v>
+        <v>-0.8358560147325704</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.349155930191046</v>
+        <v>-0.8556341900024549</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.387697522109374</v>
+        <v>-1.043423173141491</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.560384970251462</v>
+        <v>-1.926185115051339</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>-2.034546761016827</v>
+        <v>-3.899263499450171</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>-2.550413903198205</v>
+        <v>-6.132336930560996</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-5.292524337768555</v>
+        <v>-12.20488497924816</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>NOVO NORDISK</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>N1VO34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>NVO</t>
-  </si>
-  <si>
-    <t>SPOT</t>
+    <t>PDD HOLDING</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>CARNIVAL COR</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>AMERICAN EXP</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>P1DD34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>C1CL34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>AXPB34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6228254616581665</v>
+        <v>-0.3977990194427505</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.7804460819243104</v>
+        <v>-0.4338431045762263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.8072728962101507</v>
+        <v>-0.4495865317840071</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.8358560147325704</v>
+        <v>-0.4866798525876632</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.8556341900024549</v>
+        <v>-0.632192048629804</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.043423173141491</v>
+        <v>-0.8725554723205278</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.926185115051339</v>
+        <v>-0.9428065600921371</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>-3.899263499450171</v>
+        <v>-1.096399046844454</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-6.132336930560996</v>
+        <v>-1.476736024749698</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-12.20488497924816</v>
+        <v>-1.949415551818674</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>PDD HOLDING</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>SCHWAB</t>
+  </si>
+  <si>
+    <t>AMERICAN EXP</t>
   </si>
   <si>
     <t>ALPHABET</t>
   </si>
   <si>
-    <t>CARNIVAL COR</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>AMERICAN EXP</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
   </si>
   <si>
     <t>BNY MELLON</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>P1DD34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>SCHW34</t>
+  </si>
+  <si>
+    <t>AXPB34</t>
   </si>
   <si>
     <t>GOGL35</t>
   </si>
   <si>
-    <t>C1CL34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>AXPB34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
   </si>
   <si>
     <t>BONY34</t>
   </si>
   <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>PDD</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>TSM</t>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>SCHW</t>
+  </si>
+  <si>
+    <t>AXP</t>
   </si>
   <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>SLG</t>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
   <si>
     <t>BK</t>
-  </si>
-  <si>
-    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.3977990194427505</v>
+        <v>-0.5343184698103869</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.4338431045762263</v>
+        <v>-0.5410291850566864</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.4495865317840071</v>
+        <v>-0.5640831737327829</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.4866798525876632</v>
+        <v>-0.6439161767775943</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.632192048629804</v>
+        <v>-0.8881937492369616</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.8725554723205278</v>
+        <v>-0.943779420670225</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.9428065600921371</v>
+        <v>-1.275450043172896</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.096399046844454</v>
+        <v>-1.411034995880073</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.476736024749698</v>
+        <v>-1.666359543800354</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-1.949415551818674</v>
+        <v>-4.401169057693551</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>ZOETIS INC</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
     <t>UNILEVER</t>
   </si>
   <si>
-    <t>SCHWAB</t>
-  </si>
-  <si>
-    <t>AMERICAN EXP</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
+    <t>SL GREEN REA</t>
   </si>
   <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
+    <t>Z1TS34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
   </si>
   <si>
     <t>ULEV34</t>
   </si>
   <si>
-    <t>SCHW34</t>
-  </si>
-  <si>
-    <t>AXPB34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
+    <t>S1LG34</t>
   </si>
   <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>ADM</t>
   </si>
   <si>
     <t>UL</t>
   </si>
   <si>
-    <t>SCHW</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
+    <t>SLG</t>
   </si>
   <si>
     <t>SBUX</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>BK</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.5343184698103869</v>
+        <v>-0.6230494056844691</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.5410291850566864</v>
+        <v>-0.6780533929240278</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.5640831737327829</v>
+        <v>-0.7082056275939976</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.6439161767775943</v>
+        <v>-0.7811963290405401</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.8881937492369616</v>
+        <v>-0.8669382018720313</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.943779420670225</v>
+        <v>-1.074739537220012</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.275450043172896</v>
+        <v>-1.818975376281742</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.411034995880073</v>
+        <v>-1.837926891403185</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.666359543800354</v>
+        <v>-1.979465006446844</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-4.401169057693551</v>
+        <v>-2.912502430801396</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>ZOETIS INC</t>
+    <t>MERCADOLIBRE</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>PAGSEGURO</t>
+  </si>
+  <si>
+    <t>TAL EDUCATIO</t>
+  </si>
+  <si>
+    <t>PALANTIRTECH</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
   </si>
   <si>
     <t>ALPHABET</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>Z1TS34</t>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>MELI34</t>
+  </si>
+  <si>
+    <t>JNJB34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>PAGS34</t>
+  </si>
+  <si>
+    <t>T1AL34</t>
+  </si>
+  <si>
+    <t>P2LT34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
   </si>
   <si>
     <t>GOGL35</t>
   </si>
   <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>ZTS</t>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>PAGS</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>SBUX</t>
+    <t>TTWO</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6230494056844691</v>
+        <v>-0.2728008258324053</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.6780533929240278</v>
+        <v>-0.291529260029364</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.7082056275939976</v>
+        <v>-0.2943688108516653</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.7811963290405401</v>
+        <v>-0.3002092015786886</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.8669382018720313</v>
+        <v>-0.3162279479232879</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.074739537220012</v>
+        <v>-0.3272730836647035</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.818975376281742</v>
+        <v>-0.4006026528183284</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.837926891403185</v>
+        <v>-0.4798041768417534</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.979465006446844</v>
+        <v>-0.5043993179565831</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-2.912502430801396</v>
+        <v>-4.485958404775374</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>MERCADOLIBRE</t>
-  </si>
-  <si>
-    <t>JOHNSON</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>PAGSEGURO</t>
-  </si>
-  <si>
-    <t>TAL EDUCATIO</t>
-  </si>
-  <si>
-    <t>PALANTIRTECH</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>MELI34</t>
-  </si>
-  <si>
-    <t>JNJB34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>PAGS34</t>
-  </si>
-  <si>
-    <t>T1AL34</t>
-  </si>
-  <si>
-    <t>P2LT34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>MELI</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>PAGS</t>
-  </si>
-  <si>
-    <t>TAL</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>TTWO</t>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>BLACKROCK</t>
+  </si>
+  <si>
+    <t>APPLIED MATE</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>ORCL34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>BLAK34</t>
+  </si>
+  <si>
+    <t>A1MT34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.2728008258324053</v>
+        <v>-0.4595633629627969</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.291529260029364</v>
+        <v>-0.5251332124480541</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.2943688108516653</v>
+        <v>-0.5790230571777641</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.3002092015786886</v>
+        <v>-0.6063793416556962</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.3162279479232879</v>
+        <v>-0.6662639390697223</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.3272730836647035</v>
+        <v>-0.7399300292663611</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.4006026528183284</v>
+        <v>-1.34454139065565</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-0.4798041768417534</v>
+        <v>-1.589061909278826</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-0.5043993179565831</v>
+        <v>-1.671979347946035</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-4.485958404775374</v>
+        <v>-2.526917373710603</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>BLACKROCK</t>
+    <t>COSTCO</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>NVIDIA CORP</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>LILLY</t>
   </si>
   <si>
     <t>APPLIED MATE</t>
   </si>
   <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>ORCL34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>BLAK34</t>
+    <t>COWC34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
   </si>
   <si>
     <t>A1MT34</t>
   </si>
   <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>BLK</t>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>LLY</t>
   </si>
   <si>
     <t>AMAT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>SONY</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.4595633629627969</v>
+        <v>-0.5115381691553864</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.5251332124480541</v>
+        <v>-0.5246964352282646</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.5790230571777641</v>
+        <v>-0.5893142138201739</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.6063793416556962</v>
+        <v>-0.6384948402265138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.6662639390697223</v>
+        <v>-0.7434154852670645</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.7399300292663611</v>
+        <v>-0.7725325539322512</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.34454139065565</v>
+        <v>-0.8807748627014007</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.589061909278826</v>
+        <v>-0.8992873990009684</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.671979347946035</v>
+        <v>-0.9184626840770989</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-2.526917373710603</v>
+        <v>-0.9947881976309816</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>COSTCO</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>NVIDIA CORP</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>APPLIED MATE</t>
-  </si>
-  <si>
-    <t>COWC34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>NVDC34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>A1MT34</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>AMAT</t>
+    <t>MOSAIC CO</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>ASTRAZENECA</t>
+  </si>
+  <si>
+    <t>ECOPETROL SA</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>MOSC34</t>
+  </si>
+  <si>
+    <t>B1SA34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>A1ZN34</t>
+  </si>
+  <si>
+    <t>E1CO34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>BSAC</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.5115381691553864</v>
+        <v>-0.3143228751614373</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.5246964352282646</v>
+        <v>-0.3238785349922182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.5893142138201739</v>
+        <v>-0.3750514743042004</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.6384948402265138</v>
+        <v>-0.4291445023050215</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.7434154852670645</v>
+        <v>-0.4425689177551249</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.7725325539322512</v>
+        <v>-0.7774760936454115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.8807748627014007</v>
+        <v>-0.7922144656772616</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-0.8992873990009684</v>
+        <v>-2.378333782882692</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-0.9184626840770989</v>
+        <v>-4.081442193237308</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-0.9947881976309816</v>
+        <v>-22.24989986419678</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>MOSAIC CO</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
+    <t>TAKE-TWO INT</t>
   </si>
   <si>
     <t>EXELON CORP</t>
   </si>
   <si>
-    <t>ASTRAZENECA</t>
-  </si>
-  <si>
-    <t>ECOPETROL SA</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
   </si>
   <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>MOSC34</t>
-  </si>
-  <si>
-    <t>B1SA34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
   </si>
   <si>
     <t>E1XC34</t>
   </si>
   <si>
-    <t>A1ZN34</t>
-  </si>
-  <si>
-    <t>E1CO34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
+    <t>BKNG34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>MOS</t>
-  </si>
-  <si>
-    <t>BSAC</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>TTWO</t>
   </si>
   <si>
     <t>EXC</t>
   </si>
   <si>
-    <t>AZN</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>TTWO</t>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>HMC</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>SONY</t>
+    <t>RIO</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.3143228751614373</v>
+        <v>-1.040584496120573</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.3238785349922182</v>
+        <v>-1.092715746566682</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.3750514743042004</v>
+        <v>-1.11412140786183</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.4291445023050215</v>
+        <v>-1.128761840744119</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.4425689177551249</v>
+        <v>-1.287381483001809</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.7774760936454115</v>
+        <v>-1.288642174407869</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.7922144656772616</v>
+        <v>-1.356785782714724</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.378333782882692</v>
+        <v>-1.486106008254865</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-4.081442193237308</v>
+        <v>-2.277195528167795</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-22.24989986419678</v>
+        <v>-3.183013166824821</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>LLOYDS BANKI</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
     <t>TAKE-TWO INT</t>
   </si>
   <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
   </si>
   <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
     <t>GE</t>
   </si>
   <si>
+    <t>L1YG34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
     <t>T1TW34</t>
   </si>
   <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>BKNG34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
   </si>
   <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
     <t>GEOO34</t>
   </si>
   <si>
+    <t>LYG</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
     <t>TTWO</t>
   </si>
   <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>SPG</t>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>RIO</t>
   </si>
   <si>
     <t>SBUX</t>
   </si>
   <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
     <t>FSLR</t>
-  </si>
-  <si>
-    <t>RIO</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.040584496120573</v>
+        <v>-0.6286411260223304</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.092715746566682</v>
+        <v>-0.7427684250726685</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.11412140786183</v>
+        <v>-0.99921971205913</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.128761840744119</v>
+        <v>-1.05182217939182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.287381483001809</v>
+        <v>-1.496289159881599</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.288642174407869</v>
+        <v>-1.524434888608994</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.356785782714724</v>
+        <v>-1.54305138489508</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.486106008254865</v>
+        <v>-1.639802981735556</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.277195528167795</v>
+        <v>-2.315401028274209</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>-3.183013166824821</v>
+        <v>-3.243344100097602</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>LLOYDS BANKI</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
     <t>NASDAQ INC</t>
   </si>
   <si>
+    <t>CATERPILLAR</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
     <t>3M</t>
   </si>
   <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
     <t>RIO TINTO</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
+    <t>SONY GROUP</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>L1YG34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
     <t>N1DA34</t>
   </si>
   <si>
+    <t>CATP34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
     <t>MMMC34</t>
   </si>
   <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
     <t>RIOT34</t>
   </si>
   <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
+    <t>SNEC34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>LYG</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
     <t>NDAQ</t>
   </si>
   <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
     <t>MMM</t>
   </si>
   <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
     <t>RIO</t>
   </si>
   <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>FSLR</t>
+    <t>SONY</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6286411260223304</v>
+        <v>-1.092927779979618</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.7427684250726685</v>
+        <v>-1.103023779218347</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.99921971205913</v>
+        <v>-1.152869950408785</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.05182217939182</v>
+        <v>-1.399763444633209</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.496289159881599</v>
+        <v>-1.402280426464131</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.524434888608994</v>
+        <v>-1.412936454353257</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.54305138489508</v>
+        <v>-1.59022484399793</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.639802981735556</v>
+        <v>-3.505984783172607</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.315401028274209</v>
+        <v>-3.689608128890541</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>-3.243344100097602</v>
+        <v>-6.913299211693811</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>CATERPILLAR</t>
+    <t>CARNIVAL COR</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
   </si>
   <si>
     <t>REALTY INCOM</t>
   </si>
   <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
     <t>SONY GROUP</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>CATP34</t>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>ZOETIS INC</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>C1CL34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
   </si>
   <si>
     <t>R1IN34</t>
   </si>
   <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
     <t>SNEC34</t>
   </si>
   <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>CAT</t>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>Z1TS34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>UL</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
     <t>SONY</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>SLG</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.092927779979618</v>
+        <v>-0.6068312521820189</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.103023779218347</v>
+        <v>-0.6749840088825323</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.152869950408785</v>
+        <v>-0.8127051821773819</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.399763444633209</v>
+        <v>-0.8398145145110902</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.402280426464131</v>
+        <v>-0.8753920201415895</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.412936454353257</v>
+        <v>-0.921468467109662</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.59022484399793</v>
+        <v>-1.125143141143781</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-3.505984783172607</v>
+        <v>-1.670906008468592</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-3.689608128890541</v>
+        <v>-2.199409514763829</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-6.913299211693811</v>
+        <v>-3.42680467675018</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>CARNIVAL COR</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>3M</t>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
   </si>
   <si>
     <t>UNILEVER</t>
   </si>
   <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
   </si>
   <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>ZOETIS INC</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>C1CL34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
   </si>
   <si>
     <t>ULEV34</t>
   </si>
   <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
   </si>
   <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>Z1TS34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>MMM</t>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>RIO</t>
   </si>
   <si>
     <t>UL</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>SONY</t>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>SPG</t>
   </si>
   <si>
     <t>SBUX</t>
   </si>
   <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>SLG</t>
+    <t>SPOT</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6068312521820189</v>
+        <v>-1.00961580578587</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.6749840088825323</v>
+        <v>-1.054764839966083</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.8127051821773819</v>
+        <v>-1.125387191772461</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.8398145145110902</v>
+        <v>-1.225284953354276</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.8753920201415895</v>
+        <v>-1.248287000915298</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.921468467109662</v>
+        <v>-1.328647482772794</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.125143141143781</v>
+        <v>-2.534278367817024</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.670906008468592</v>
+        <v>-3.835493518432486</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-2.199409514763829</v>
+        <v>-4.591214664382278</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-3.42680467675018</v>
+        <v>-4.846717582622659</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>SONY GROUP</t>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>MICROSOFT</t>
+  </si>
+  <si>
+    <t>MONSTER BEVE</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>CHEVRON</t>
+  </si>
+  <si>
+    <t>NVIDIA CORP</t>
+  </si>
+  <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t>EXXON MOBIL</t>
+  </si>
+  <si>
+    <t>JPMORGAN</t>
   </si>
   <si>
     <t>HONDA MO</t>
   </si>
   <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>MSFT34</t>
+  </si>
+  <si>
+    <t>M1NS34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>CHVX34</t>
+  </si>
+  <si>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>MSCD34</t>
+  </si>
+  <si>
+    <t>EXXO34</t>
+  </si>
+  <si>
+    <t>JPMC34</t>
   </si>
   <si>
     <t>HOND34</t>
   </si>
   <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>SONY</t>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>MNST</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>JPM</t>
   </si>
   <si>
     <t>HMC</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>SPOT</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.00961580578587</v>
+        <v>-0.2988210441399133</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.054764839966083</v>
+        <v>-0.3234448462621486</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.125387191772461</v>
+        <v>-0.3276022933960121</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.225284953354276</v>
+        <v>-0.400001049041748</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.248287000915298</v>
+        <v>-0.4002365354157433</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.328647482772794</v>
+        <v>-0.430984047631739</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-2.534278367817024</v>
+        <v>-0.4713170729552445</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-3.835493518432486</v>
+        <v>-0.4886616528892773</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-4.591214664382278</v>
+        <v>-0.5088501384278032</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-4.846717582622659</v>
+        <v>-1.075686561889597</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
-    <t>MICROSOFT</t>
-  </si>
-  <si>
-    <t>MONSTER BEVE</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>CHEVRON</t>
-  </si>
-  <si>
-    <t>NVIDIA CORP</t>
-  </si>
-  <si>
-    <t>MASTERCARD</t>
-  </si>
-  <si>
-    <t>EXXON MOBIL</t>
-  </si>
-  <si>
-    <t>JPMORGAN</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
-    <t>MSFT34</t>
-  </si>
-  <si>
-    <t>M1NS34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>CHVX34</t>
-  </si>
-  <si>
-    <t>NVDC34</t>
-  </si>
-  <si>
-    <t>MSCD34</t>
-  </si>
-  <si>
-    <t>EXXO34</t>
-  </si>
-  <si>
-    <t>JPMC34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>MNST</t>
-  </si>
-  <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>HMC</t>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>MEDICAL P TR</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>ORCL34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>M2PW34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>MPW</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.2988210441399133</v>
+        <v>-0.7459135691878629</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.3234448462621486</v>
+        <v>-0.8501932273484272</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.3276022933960121</v>
+        <v>-0.9153320547485393</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.400001049041748</v>
+        <v>-1.06373919654834</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.4002365354157433</v>
+        <v>-1.147221579123425</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.430984047631739</v>
+        <v>-1.187568802528403</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.4713170729552445</v>
+        <v>-1.755834808502186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-0.4886616528892773</v>
+        <v>-1.762798582496544</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-0.5088501384278032</v>
+        <v>-5.112350916767127</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-1.075686561889597</v>
+        <v>-162.6455184972001</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -31,28 +31,28 @@
     <t>ORACLE</t>
   </si>
   <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>UBER TECH IN</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>PDD HOLDING</t>
   </si>
   <si>
     <t>RIO TINTO</t>
   </si>
   <si>
-    <t>LILLY</t>
-  </si>
-  <si>
     <t>EXELON CORP</t>
   </si>
   <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>MEDICAL P TR</t>
+    <t>SL GREEN REA</t>
   </si>
   <si>
     <t>GE</t>
@@ -61,28 +61,28 @@
     <t>ORCL34</t>
   </si>
   <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>U1BE34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>P1DD34</t>
   </si>
   <si>
     <t>RIOT34</t>
   </si>
   <si>
-    <t>LILY34</t>
-  </si>
-  <si>
     <t>E1XC34</t>
   </si>
   <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>M2PW34</t>
+    <t>S1LG34</t>
   </si>
   <si>
     <t>GEOO34</t>
@@ -91,28 +91,28 @@
     <t>ORCL</t>
   </si>
   <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>PDD</t>
   </si>
   <si>
     <t>RIO</t>
   </si>
   <si>
-    <t>LLY</t>
-  </si>
-  <si>
     <t>EXC</t>
   </si>
   <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>MPW</t>
+    <t>SLG</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.7459135691878629</v>
+        <v>-0.4914432900257992</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.8501932273484272</v>
+        <v>-0.5490882255253382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.9153320547485393</v>
+        <v>-0.5571410924530937</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.06373919654834</v>
+        <v>-0.6451599739375524</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.147221579123425</v>
+        <v>-0.736181929627449</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.187568802528403</v>
+        <v>-0.7593890638672676</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.755834808502186</v>
+        <v>-1.035788176086498</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.762798582496544</v>
+        <v>-1.127250734527479</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-5.112350916767127</v>
+        <v>-1.470022021545446</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>-162.6455184972001</v>
+        <v>-142.6153728914796</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
     <t>HONDA MO</t>
   </si>
   <si>
-    <t>UBER TECH IN</t>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
   </si>
   <si>
     <t>SONY GROUP</t>
   </si>
   <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>PDD HOLDING</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>ORCL34</t>
-  </si>
-  <si>
     <t>HOND34</t>
   </si>
   <si>
-    <t>U1BE34</t>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
   </si>
   <si>
     <t>SNEC34</t>
   </si>
   <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>P1DD34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
+    <t>MSCD34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>ORCL</t>
-  </si>
-  <si>
     <t>HMC</t>
   </si>
   <si>
-    <t>UBER</t>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>MU</t>
   </si>
   <si>
     <t>SONY</t>
   </si>
   <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>PDD</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>SLG</t>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.4914432900257992</v>
+        <v>-0.8447879336090409</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.5490882255253382</v>
+        <v>-0.9068146185309161</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.5571410924530937</v>
+        <v>-0.9078313721649636</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.6451599739375524</v>
+        <v>-1.072263972328074</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.736181929627449</v>
+        <v>-1.173040021545603</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.7593890638672676</v>
+        <v>-1.209991445440764</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.035788176086498</v>
+        <v>-1.308556296600727</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.127250734527479</v>
+        <v>-1.535600670427584</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.470022021545446</v>
+        <v>-2.447870384567068</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>-142.6153728914796</v>
+        <v>-161.0585215741885</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -31,88 +31,88 @@
     <t>HONDA MO</t>
   </si>
   <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>DEERE CO</t>
+  </si>
+  <si>
+    <t>CATERPILLAR</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>FORD MOTORS</t>
+  </si>
+  <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
+    <t>GE</t>
   </si>
   <si>
     <t>SONY GROUP</t>
   </si>
   <si>
-    <t>MASTERCARD</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>HOND34</t>
   </si>
   <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>DEEC34</t>
+  </si>
+  <si>
+    <t>CATP34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>FDMO34</t>
+  </si>
+  <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
+    <t>GEOO34</t>
   </si>
   <si>
     <t>SNEC34</t>
   </si>
   <si>
-    <t>MSCD34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
     <t>HMC</t>
   </si>
   <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>SBUX</t>
   </si>
   <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
     <t>SONY</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.8447879336090409</v>
+        <v>-1.245814895919466</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.9068146185309161</v>
+        <v>-1.265102672721696</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.9078313721649636</v>
+        <v>-1.347507993621548</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.072263972328074</v>
+        <v>-1.73380663489516</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.173040021545603</v>
+        <v>-1.950270473375895</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.209991445440764</v>
+        <v>-2.20734958056255</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.308556296600727</v>
+        <v>-2.892374406318595</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.535600670427584</v>
+        <v>-3.256078084792534</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-2.447870384567068</v>
+        <v>-8.454802211897913</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-161.0585215741885</v>
+        <v>-8.902858512137755</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>NVIDIA CORP</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>NOVO NORDISK</t>
   </si>
   <si>
     <t>RIO TINTO</t>
   </si>
   <si>
-    <t>DEERE CO</t>
-  </si>
-  <si>
-    <t>CATERPILLAR</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>FORD MOTORS</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>N1VO34</t>
   </si>
   <si>
     <t>RIOT34</t>
   </si>
   <si>
-    <t>DEEC34</t>
-  </si>
-  <si>
-    <t>CATP34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>FDMO34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>EXC</t>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>NVO</t>
   </si>
   <si>
     <t>RIO</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>SONY</t>
+    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.245814895919466</v>
+        <v>-0.5539810494947233</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.265102672721696</v>
+        <v>-0.5792538483046883</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.347507993621548</v>
+        <v>-0.6330067380683317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.73380663489516</v>
+        <v>-0.7918560712776923</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.950270473375895</v>
+        <v>-0.922597302527322</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-2.20734958056255</v>
+        <v>-1.417753243315957</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-2.892374406318595</v>
+        <v>-1.768030627212283</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-3.256078084792534</v>
+        <v>-2.116287083110819</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-8.454802211897913</v>
+        <v>-2.828598305130072</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-8.902858512137755</v>
+        <v>-6.377635498847667</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>NVIDIA CORP</t>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>FORD MOTORS</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
   </si>
   <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>NOVO NORDISK</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>NVDC34</t>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>FDMO34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>ORCL34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
   </si>
   <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>N1VO34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>NVDA</t>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>MU</t>
   </si>
   <si>
     <t>SBUX</t>
-  </si>
-  <si>
-    <t>NVO</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.5539810494947233</v>
+        <v>-0.8474170698127637</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.5792538483046883</v>
+        <v>-0.931088463031756</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.6330067380683317</v>
+        <v>-0.9847494584046217</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.7918560712776923</v>
+        <v>-1.032295703887939</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.922597302527322</v>
+        <v>-1.211360323209405</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.417753243315957</v>
+        <v>-1.28207775575865</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.768030627212283</v>
+        <v>-1.293705083755412</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.116287083110819</v>
+        <v>-1.33426407085426</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.828598305130072</v>
+        <v>-1.863911676866266</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-6.377635498847667</v>
+        <v>-2.391410319938586</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>FORD MOTORS</t>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
   </si>
   <si>
     <t>BNY MELLON</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
     <t>ORACLE</t>
   </si>
   <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>FDMO34</t>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>SUN COMMUN</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
   </si>
   <si>
     <t>BONY34</t>
   </si>
   <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
     <t>ORCL34</t>
   </si>
   <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>S2UI34</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>UL</t>
   </si>
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>RIO</t>
-  </si>
-  <si>
     <t>ORCL</t>
   </si>
   <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>SBUX</t>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>SUI</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.8474170698127637</v>
+        <v>-0.9213767777255271</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.931088463031756</v>
+        <v>-1.036740406692843</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.9847494584046217</v>
+        <v>-1.172240723732102</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.032295703887939</v>
+        <v>-1.314654764923034</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.211360323209405</v>
+        <v>-1.36057486741629</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.28207775575865</v>
+        <v>-1.967159113975882</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.293705083755412</v>
+        <v>-2.110160288604675</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.33426407085426</v>
+        <v>-2.29555756112677</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.863911676866266</v>
+        <v>-3.207278935806244</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-2.391410319938586</v>
+        <v>-4.157241850314307</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
+    <t>DEERE CO</t>
   </si>
   <si>
     <t>SONY GROUP</t>
   </si>
   <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>SUN COMMUN</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>ORCL34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
+    <t>NETFLIX</t>
+  </si>
+  <si>
+    <t>BERKSHIRE</t>
+  </si>
+  <si>
+    <t>MODERNA INC</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>DEEC34</t>
   </si>
   <si>
     <t>SNEC34</t>
   </si>
   <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>S2UI34</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>ADM</t>
+    <t>NFLX34</t>
+  </si>
+  <si>
+    <t>BERK34</t>
+  </si>
+  <si>
+    <t>M1RN34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>DE</t>
   </si>
   <si>
     <t>SONY</t>
   </si>
   <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>SUI</t>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>BRK-B</t>
+  </si>
+  <si>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>MU</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.9213767777255271</v>
+        <v>-0.2493626065532339</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.036740406692843</v>
+        <v>-0.2551807457275572</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.172240723732102</v>
+        <v>-0.2611938359710564</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.314654764923034</v>
+        <v>-0.2950366975055658</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.36057486741629</v>
+        <v>-0.3808961398162864</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.967159113975882</v>
+        <v>-0.4624741569656408</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-2.110160288604675</v>
+        <v>-0.4850599236870039</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.29555756112677</v>
+        <v>-0.6454206596967396</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-3.207278935806244</v>
+        <v>-0.7628852814846141</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-4.157241850314307</v>
+        <v>-3.618270805436367</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,88 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>DEERE CO</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>NETFLIX</t>
-  </si>
-  <si>
-    <t>BERKSHIRE</t>
-  </si>
-  <si>
-    <t>MODERNA INC</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>ECOPETROL SA</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>APARTMENT IN</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
   </si>
   <si>
     <t>MICRON TECHN</t>
   </si>
   <si>
-    <t>DEEC34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>NFLX34</t>
-  </si>
-  <si>
-    <t>BERK34</t>
-  </si>
-  <si>
-    <t>M1RN34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>E1CO34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>A1IV34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
   </si>
   <si>
     <t>MUTC34</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BRK-B</t>
-  </si>
-  <si>
-    <t>MRNA</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>BFH</t>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>SBUX</t>
   </si>
   <si>
     <t>MU</t>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.2493626065532339</v>
+        <v>-1.066132732925325</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.2551807457275572</v>
+        <v>-1.110953886443895</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.2611938359710564</v>
+        <v>-1.142685206898022</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.2950366975055658</v>
+        <v>-1.194543451934805</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.3808961398162864</v>
+        <v>-1.270582560180628</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.4624741569656408</v>
+        <v>-1.562240613327049</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>-0.4850599236870039</v>
+        <v>-1.638454921005177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>-0.6454206596967396</v>
+        <v>-1.687254183532787</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>-0.7628852814846141</v>
+        <v>-1.778534377823235</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-3.618270805436367</v>
+        <v>-2.785970486787591</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
   </si>
   <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>ECOPETROL SA</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>APARTMENT IN</t>
+    <t>ARCHER DANIE</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
   </si>
   <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>E1CO34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>A1IV34</t>
+    <t>A1DM34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>UL</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>SBUX</t>
   </si>
   <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>AIV</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>MU</t>
+    <t>ADM</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.066132732925325</v>
+        <v>-1.468383954917954</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.110953886443895</v>
+        <v>-1.495845474273665</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.142685206898022</v>
+        <v>-1.593598835082958</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.194543451934805</v>
+        <v>-1.767710845932015</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.270582560180628</v>
+        <v>-1.966321621017414</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.562240613327049</v>
+        <v>-2.035449541438538</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.638454921005177</v>
+        <v>-2.218920402374351</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.687254183532787</v>
+        <v>-3.577958360488992</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-1.778534377823235</v>
+        <v>-5.651010192901595</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-2.785970486787591</v>
+        <v>-10.84830468823202</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -31,88 +31,88 @@
     <t>REALTY INCOM</t>
   </si>
   <si>
-    <t>NEWMONT GOLD</t>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
   </si>
   <si>
     <t>TAKE-TWO INT</t>
   </si>
   <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
     <t>MICRON TECHN</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>GE</t>
+    <t>HONDA MO</t>
   </si>
   <si>
     <t>R1IN34</t>
   </si>
   <si>
-    <t>N1EM34</t>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
   </si>
   <si>
     <t>T1TW34</t>
   </si>
   <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
     <t>MUTC34</t>
   </si>
   <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
+    <t>HOND34</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>NEM</t>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>BSAC</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>ADM</t>
   </si>
   <si>
     <t>TTWO</t>
   </si>
   <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
     <t>MU</t>
   </si>
   <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>ADM</t>
+    <t>HMC</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.468383954917954</v>
+        <v>-0.996654756042517</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.495845474273665</v>
+        <v>-1.039258041461835</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.593598835082958</v>
+        <v>-1.181156778951618</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>-1.767710845932015</v>
+        <v>-1.313950889336411</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>-1.966321621017414</v>
+        <v>-1.389364465854669</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>-2.035449541438538</v>
+        <v>-1.516377422263758</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>-2.218920402374351</v>
+        <v>-1.656744478401379</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>-3.577958360488992</v>
+        <v>-1.689533157621554</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>-5.651010192901595</v>
+        <v>-2.547621097109456</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-10.84830468823202</v>
+        <v>-2.739348443526978</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
+    <t>HOME DEPOT</t>
+  </si>
+  <si>
+    <t>EQUINOR ASA</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
   </si>
   <si>
     <t>ARCHER DANIE</t>
   </si>
   <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>B34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>HOME34</t>
+  </si>
+  <si>
+    <t>E1QN34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
   </si>
   <si>
     <t>A1DM34</t>
   </si>
   <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>BSAC</t>
-  </si>
-  <si>
-    <t>SONY</t>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>EQNR</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>SPOT</t>
   </si>
   <si>
     <t>ADM</t>
   </si>
   <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>HMC</t>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.996654756042517</v>
+        <v>-0.5417212609079556</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.039258041461835</v>
+        <v>-0.5684063626899842</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.181156778951618</v>
+        <v>-0.6775348071059852</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.313950889336411</v>
+        <v>-0.875832486332996</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.389364465854669</v>
+        <v>-0.9210737391035764</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.516377422263758</v>
+        <v>-1.164409745117155</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.656744478401379</v>
+        <v>-1.469366038978478</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.689533157621554</v>
+        <v>-2.080334371139543</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.547621097109456</v>
+        <v>-3.860883332054073</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-2.739348443526978</v>
+        <v>-5.324795089767576</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>HOME DEPOT</t>
-  </si>
-  <si>
-    <t>EQUINOR ASA</t>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
   </si>
   <si>
     <t>UNILEVER</t>
   </si>
   <si>
-    <t>LILLY</t>
-  </si>
-  <si>
     <t>ALPHABET</t>
   </si>
   <si>
-    <t>HP COMPANY</t>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
   </si>
   <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>HOME34</t>
-  </si>
-  <si>
-    <t>E1QN34</t>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
   </si>
   <si>
     <t>ULEV34</t>
   </si>
   <si>
-    <t>LILY34</t>
-  </si>
-  <si>
     <t>GOGL35</t>
   </si>
   <si>
-    <t>HPQB34</t>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
   </si>
   <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>EQNR</t>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>SPG</t>
   </si>
   <si>
     <t>UL</t>
   </si>
   <si>
-    <t>LLY</t>
-  </si>
-  <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>HPQ</t>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>SPOT</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>SBUX</t>
   </si>
   <si>
     <t>FSLR</t>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.5417212609079556</v>
+        <v>-0.8023348644687758</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.5684063626899842</v>
+        <v>-0.8564036392308481</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.6775348071059852</v>
+        <v>-0.92096924012003</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.875832486332996</v>
+        <v>-0.9493927854091169</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.9210737391035764</v>
+        <v>-1.148374549797154</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.164409745117155</v>
+        <v>-1.2898436630785</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.469366038978478</v>
+        <v>-1.84000832997117</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.080334371139543</v>
+        <v>-1.989037896118134</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-3.860883332054073</v>
+        <v>-3.031177929351543</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-5.324795089767576</v>
+        <v>-5.917297446914745</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>EQUINIX INC</t>
+  </si>
+  <si>
     <t>MICRON TECHN</t>
   </si>
   <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>EQIX34</t>
   </si>
   <si>
     <t>MUTC34</t>
   </si>
   <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>FSLR34</t>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>EQIX</t>
   </si>
   <si>
     <t>MU</t>
   </si>
   <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>SPOT</t>
-  </si>
-  <si>
-    <t>FSLR</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.8023348644687758</v>
+        <v>-0.8611165701295249</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.8564036392308481</v>
+        <v>-0.8893500552367186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.92096924012003</v>
+        <v>-1.011766062922277</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.9493927854091169</v>
+        <v>-1.019563024808122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.148374549797154</v>
+        <v>-1.048870018425077</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.2898436630785</v>
+        <v>-1.212892414550879</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.84000832997117</v>
+        <v>-1.384713293533423</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.989037896118134</v>
+        <v>-1.829459552017212</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-3.031177929351543</v>
+        <v>-2.446060009824635</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>-5.917297446914745</v>
+        <v>-2.574443305740715</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>QUALCOMM</t>
   </si>
   <si>
     <t>TAKE-TWO INT</t>
   </si>
   <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
   </si>
   <si>
     <t>SL GREEN REA</t>
   </si>
   <si>
-    <t>EQUINIX INC</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>QCOM34</t>
   </si>
   <si>
     <t>T1TW34</t>
   </si>
   <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
   </si>
   <si>
     <t>S1LG34</t>
   </si>
   <si>
-    <t>EQIX34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>RIO</t>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>QCOM</t>
   </si>
   <si>
     <t>TTWO</t>
   </si>
   <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>HMC</t>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
   <si>
     <t>SLG</t>
   </si>
   <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>SPOT</t>
+    <t>SBUX</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.8611165701295249</v>
+        <v>-1.021899161643887</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.8893500552367186</v>
+        <v>-1.230204701423645</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.011766062922277</v>
+        <v>-1.43357283369474</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.019563024808122</v>
+        <v>-1.49356530946352</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.048870018425077</v>
+        <v>-1.701703043380462</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.212892414550879</v>
+        <v>-2.104093387203193</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.384713293533423</v>
+        <v>-2.476264746521338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.829459552017212</v>
+        <v>-2.627942460151644</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.446060009824635</v>
+        <v>-3.036728377952386</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-2.574443305740715</v>
+        <v>-5.967886870406801</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>QUALCOMM</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>NEXTERA ENER</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
   </si>
   <si>
     <t>MICRON TECHN</t>
   </si>
   <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>QCOM34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>NEXT34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
   </si>
   <si>
     <t>MUTC34</t>
   </si>
   <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>TTWO</t>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>FSLR</t>
   </si>
   <si>
     <t>MU</t>
-  </si>
-  <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>SBUX</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.021899161643887</v>
+        <v>-0.6612970708083594</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.230204701423645</v>
+        <v>-0.7444862200736679</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.43357283369474</v>
+        <v>-0.7647818610977311</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.49356530946352</v>
+        <v>-0.9331218807601545</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.701703043380462</v>
+        <v>-1.045505882606449</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-2.104093387203193</v>
+        <v>-1.552854365844723</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-2.476264746521338</v>
+        <v>-1.618436842727533</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.627942460151644</v>
+        <v>-1.777456933174108</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-3.036728377952386</v>
+        <v>-2.704883996124408</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-5.967886870406801</v>
+        <v>-12.57148268610672</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,24 +28,24 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
     <t>RIO TINTO</t>
   </si>
   <si>
-    <t>NEXTERA ENER</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
     <t>SONY GROUP</t>
   </si>
   <si>
@@ -55,27 +55,27 @@
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>MICRON TECHN</t>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
   </si>
   <si>
     <t>RIOT34</t>
   </si>
   <si>
-    <t>NEXT34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
     <t>SNEC34</t>
   </si>
   <si>
@@ -85,27 +85,24 @@
     <t>FSLR34</t>
   </si>
   <si>
-    <t>MUTC34</t>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>BK</t>
   </si>
   <si>
     <t>RIO</t>
   </si>
   <si>
-    <t>NEE</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>RIG</t>
-  </si>
-  <si>
     <t>SONY</t>
   </si>
   <si>
@@ -115,7 +112,7 @@
     <t>FSLR</t>
   </si>
   <si>
-    <t>MU</t>
+    <t>ASML</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6612970708083594</v>
+        <v>-1.449140880538835</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.7444862200736679</v>
+        <v>-1.454533704383721</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.7647818610977311</v>
+        <v>-1.537580323903967</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>-0.9331218807601545</v>
+        <v>-1.650687608955195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>-1.045505882606449</v>
+        <v>-1.725920719787609</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>-1.552854365844723</v>
+        <v>-2.237776654663321</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>-1.618436842727533</v>
+        <v>-2.99344941592426</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>-1.777456933174108</v>
+        <v>-3.302623425155616</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>-2.704883996124408</v>
+        <v>-5.408820561111497</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-12.57148268610672</v>
+        <v>-5.807896605481218</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>TESLA INC</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
     <t>UNILEVER</t>
   </si>
   <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
     <t>TAKE-TWO INT</t>
   </si>
   <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
     <t>GE</t>
   </si>
   <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>ASML HOLD</t>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>TSLA34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
   </si>
   <si>
     <t>ULEV34</t>
   </si>
   <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
     <t>T1TW34</t>
   </si>
   <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>ASML34</t>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>HMC</t>
   </si>
   <si>
     <t>UL</t>
   </si>
   <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
     <t>TTWO</t>
   </si>
   <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>ASML</t>
+    <t>ADM</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.449140880538835</v>
+        <v>-0.6529125217057299</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.454533704383721</v>
+        <v>-0.6852321095657317</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.537580323903967</v>
+        <v>-1.281466776909838</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.650687608955195</v>
+        <v>-1.750001829605026</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.725920719787609</v>
+        <v>-2.974623997573872</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>-2.237776654663321</v>
+        <v>-3.159001233787421</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>-2.99344941592426</v>
+        <v>-3.421796607365891</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>-3.302623425155616</v>
+        <v>-3.468661454277026</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-5.408820561111497</v>
+        <v>-4.45678358146688</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>-5.807896605481218</v>
+        <v>-5.035489281883201</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>EQUINIX INC</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
     <t>SONY GROUP</t>
   </si>
   <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>TESLA INC</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>ARCHER DANIE</t>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>EQIX34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
   </si>
   <si>
     <t>SNEC34</t>
   </si>
   <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>TSLA34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>A1DM34</t>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>RIO</t>
   </si>
   <si>
     <t>SONY</t>
   </si>
   <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
     <t>ADM</t>
+  </si>
+  <si>
+    <t>BK</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6529125217057299</v>
+        <v>-0.7181937705536257</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.6852321095657317</v>
+        <v>-0.846115350997934</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.281466776909838</v>
+        <v>-0.8509256144825486</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.750001829605026</v>
+        <v>-1.036043172607606</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-2.974623997573872</v>
+        <v>-1.290878211243395</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-3.159001233787421</v>
+        <v>-1.317189695648267</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-3.421796607365891</v>
+        <v>-1.693493607956043</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-3.468661454277026</v>
+        <v>-2.0433793018492</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-4.45678358146688</v>
+        <v>-3.817608115310577</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-5.035489281883201</v>
+        <v>-3.838144055160228</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>OCCIDENT PTR</t>
   </si>
   <si>
     <t>NEWMONT GOLD</t>
   </si>
   <si>
-    <t>EQUINIX INC</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>MICROSOFT</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>AMZO34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>OXYP34</t>
   </si>
   <si>
     <t>N1EM34</t>
   </si>
   <si>
-    <t>EQIX34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>SPOT</t>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>MSFT34</t>
+  </si>
+  <si>
+    <t>GOGL34</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>OXY</t>
   </si>
   <si>
     <t>NEM</t>
   </si>
   <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>BK</t>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.7181937705536257</v>
+        <v>-1.246108549856579</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.846115350997934</v>
+        <v>-1.295960476272739</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.8509256144825486</v>
+        <v>-1.301419020630419</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.036043172607606</v>
+        <v>-1.45208740234375</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.290878211243395</v>
+        <v>-1.556613728462253</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.317189695648267</v>
+        <v>-1.682202052284225</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.693493607956043</v>
+        <v>-2.069198479293846</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.0433793018492</v>
+        <v>-3.824441847916106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>-3.817608115310577</v>
+        <v>-4.357752894145889</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-3.838144055160228</v>
+        <v>-7.249566098510741</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>AMAZON</t>
+    <t>STARBUCKS</t>
   </si>
   <si>
     <t>SIMON PROP</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>BRITISH AMER</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>GE</t>
   </si>
   <si>
     <t>ARCHER DANIE</t>
   </si>
   <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>OCCIDENT PTR</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
     <t>MICROSOFT</t>
   </si>
   <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>AMZO34</t>
+    <t>MORGAN STAN</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
   </si>
   <si>
     <t>SIMN34</t>
   </si>
   <si>
-    <t>SBUB34</t>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>B1TI34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
   </si>
   <si>
     <t>A1DM34</t>
   </si>
   <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>OXYP34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
     <t>MSFT34</t>
   </si>
   <si>
-    <t>GOGL34</t>
-  </si>
-  <si>
-    <t>AMZN</t>
+    <t>MSBR34</t>
+  </si>
+  <si>
+    <t>SBUX</t>
   </si>
   <si>
     <t>SPG</t>
   </si>
   <si>
-    <t>SBUX</t>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>BTI</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>ADM</t>
   </si>
   <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
     <t>MSFT</t>
   </si>
   <si>
-    <t>GOOGL</t>
+    <t>MS</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-1.246108549856579</v>
+        <v>-0.6718398332595825</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.295960476272739</v>
+        <v>-0.7656158988265815</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.301419020630419</v>
+        <v>-0.8680701379433771</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.45208740234375</v>
+        <v>-1.231928944587708</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.556613728462253</v>
+        <v>-1.448050819915807</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.682202052284225</v>
+        <v>-1.658158247295432</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>-2.069198479293846</v>
+        <v>-2.679550785178435</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>-3.824441847916106</v>
+        <v>-2.786574776382622</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>-4.357752894145889</v>
+        <v>-3.466524273898884</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-7.249566098510741</v>
+        <v>-5.039756652018696</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
+    <t>CATERPILLAR</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
+  </si>
+  <si>
+    <t>ZOETIS INC</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>NEXTERA ENER</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
   </si>
   <si>
     <t>ALPHABET</t>
   </si>
   <si>
-    <t>BRITISH AMER</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>MICROSOFT</t>
-  </si>
-  <si>
-    <t>MORGAN STAN</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>NOVO NORDISK</t>
+  </si>
+  <si>
+    <t>CATP34</t>
+  </si>
+  <si>
+    <t>B1SA34</t>
+  </si>
+  <si>
+    <t>Z1TS34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>NEXT34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
   </si>
   <si>
     <t>GOGL35</t>
   </si>
   <si>
-    <t>B1TI34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>MSFT34</t>
-  </si>
-  <si>
-    <t>MSBR34</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>SPG</t>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>N1VO34</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>BSAC</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
   <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>BTI</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>MS</t>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>NVO</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6718398332595825</v>
+        <v>-0.2942857746220398</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.7656158988265815</v>
+        <v>-0.3024524004440536</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.8680701379433771</v>
+        <v>-0.3189583794260216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.231928944587708</v>
+        <v>-0.3426201043166657</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.448050819915807</v>
+        <v>-0.4211674632988434</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.658158247295432</v>
+        <v>-0.4259993144532928</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>-2.679550785178435</v>
+        <v>-0.4620723139269103</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.786574776382622</v>
+        <v>-0.5014640148058049</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-3.466524273898884</v>
+        <v>-0.6973449582346802</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-5.039756652018696</v>
+        <v>-0.7232775615425453</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>CATERPILLAR</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
-  </si>
-  <si>
-    <t>ZOETIS INC</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>NEXTERA ENER</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>NOVO NORDISK</t>
-  </si>
-  <si>
-    <t>CATP34</t>
-  </si>
-  <si>
-    <t>B1SA34</t>
-  </si>
-  <si>
-    <t>Z1TS34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>NEXT34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>N1VO34</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>BSAC</t>
-  </si>
-  <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>NEE</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>NVO</t>
+    <t>KRAFT HEINZ</t>
+  </si>
+  <si>
+    <t>APPLIED MATE</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>NVIDIA CORP</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>KHCB34</t>
+  </si>
+  <si>
+    <t>A1MT34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>SBUX</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.2942857746220398</v>
+        <v>-3.195380668159487</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.3024524004440536</v>
+        <v>-3.641349768073269</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.3189583794260216</v>
+        <v>-3.709594121681221</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.3426201043166657</v>
+        <v>-3.804737329483032</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.4211674632988434</v>
+        <v>-4.099492363661852</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.4259993144532928</v>
+        <v>-4.552878743724193</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.4620723139269103</v>
+        <v>-5.190675508937616</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-0.5014640148058049</v>
+        <v>-9.28009613300037</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-0.6973449582346802</v>
+        <v>-13.78308515068056</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-0.7232775615425453</v>
+        <v>-75.09285608676146</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>KRAFT HEINZ</t>
-  </si>
-  <si>
-    <t>APPLIED MATE</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
   </si>
   <si>
     <t>RIO TINTO</t>
   </si>
   <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>NVIDIA CORP</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>KHCB34</t>
-  </si>
-  <si>
-    <t>A1MT34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
+    <t>MERCADOLIBRE</t>
+  </si>
+  <si>
+    <t>AAPL34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
   </si>
   <si>
     <t>RIOT34</t>
   </si>
   <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>NVDC34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>KHC</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>ADM</t>
+    <t>MELI34</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>COIN</t>
   </si>
   <si>
     <t>RIO</t>
   </si>
   <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>AMD</t>
+    <t>SONY</t>
   </si>
   <si>
     <t>SBUX</t>
+  </si>
+  <si>
+    <t>MELI</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-3.195380668159487</v>
+        <v>-0.6207101263782491</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-3.641349768073269</v>
+        <v>-0.6546158411107967</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-3.709594121681221</v>
+        <v>-0.8042757782424275</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-3.804737329483032</v>
+        <v>-0.9658434418106481</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-4.099492363661852</v>
+        <v>-1.239315599528489</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-4.552878743724193</v>
+        <v>-1.736357407135074</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-5.190675508937616</v>
+        <v>-2.278987591918849</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-9.28009613300037</v>
+        <v>-2.579294513572677</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>-13.78308515068056</v>
+        <v>-2.685144521972688</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>-75.09285608676146</v>
+        <v>-4.18956907402756</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>APPLE</t>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>NOVO NORDISK</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>APPLIED MATE</t>
   </si>
   <si>
     <t>LILLY</t>
   </si>
   <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>MERCADOLIBRE</t>
-  </si>
-  <si>
-    <t>AAPL34</t>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>N1VO34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>A1MT34</t>
   </si>
   <si>
     <t>LILY34</t>
   </si>
   <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>MELI34</t>
-  </si>
-  <si>
-    <t>AAPL</t>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>NVO</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>AMAT</t>
   </si>
   <si>
     <t>LLY</t>
   </si>
   <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
     <t>SBUX</t>
-  </si>
-  <si>
-    <t>MELI</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.6207101263782491</v>
+        <v>-0.7689366285892021</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.6546158411107967</v>
+        <v>-0.7874266224898747</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.8042757782424275</v>
+        <v>-0.8201289197394601</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.9658434418106481</v>
+        <v>-0.8851219687803678</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.239315599528489</v>
+        <v>-0.9532257817936625</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.736357407135074</v>
+        <v>-0.9782426708513299</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-2.278987591918849</v>
+        <v>-1.123405242410115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-2.579294513572677</v>
+        <v>-1.135969028735403</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.685144521972688</v>
+        <v>-1.807423860082437</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>-4.18956907402756</v>
+        <v>-3.451466735641588</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,88 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>NOVO NORDISK</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
+    <t>EXXON MOBIL</t>
+  </si>
+  <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
   </si>
   <si>
     <t>ALPHABET</t>
   </si>
   <si>
-    <t>APPLIED MATE</t>
-  </si>
-  <si>
-    <t>LILLY</t>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
   </si>
   <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>N1VO34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
+    <t>EXXO34</t>
+  </si>
+  <si>
+    <t>MSCD34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
   </si>
   <si>
     <t>GOGL35</t>
   </si>
   <si>
-    <t>A1MT34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
   </si>
   <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>NVO</t>
-  </si>
-  <si>
-    <t>AVGO</t>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>SPG</t>
   </si>
   <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>LLY</t>
+    <t>FSLR</t>
   </si>
   <si>
     <t>SBUX</t>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.7689366285892021</v>
+        <v>-0.5894033014774323</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.7874266224898747</v>
+        <v>-0.5947047428324908</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.8201289197394601</v>
+        <v>-0.6275636259269959</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.8851219687803678</v>
+        <v>-0.6460953972054995</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.9532257817936625</v>
+        <v>-0.741152467460779</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.9782426708513299</v>
+        <v>-0.8117192969511962</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.123405242410115</v>
+        <v>-0.8201405395282109</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>-1.135969028735403</v>
+        <v>-1.525689122237964</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>-1.807423860082437</v>
+        <v>-2.401417854271131</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-3.451466735641588</v>
+        <v>-7.334670838165039</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>EXXON MOBIL</t>
-  </si>
-  <si>
-    <t>MASTERCARD</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>CARNIVAL COR</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
   </si>
   <si>
     <t>SIMON PROP</t>
   </si>
   <si>
-    <t>ALPHABET</t>
+    <t>FIRST SOLAR</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>EXXO34</t>
-  </si>
-  <si>
-    <t>MSCD34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>C1CL34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
   </si>
   <si>
     <t>SIMN34</t>
   </si>
   <si>
-    <t>GOGL35</t>
+    <t>FSLR34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>TTWO</t>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
   </si>
   <si>
     <t>SPG</t>
   </si>
   <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
     <t>FSLR</t>
-  </si>
-  <si>
-    <t>SBUX</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.5894033014774323</v>
+        <v>-0.82670555590812</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.5947047428324908</v>
+        <v>-1.085535635944325</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-0.6275636259269959</v>
+        <v>-1.162877402290178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-0.6460953972054995</v>
+        <v>-1.257938756571093</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-0.741152467460779</v>
+        <v>-1.400920855403911</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-0.8117192969511962</v>
+        <v>-1.45095730621324</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-0.8201405395282109</v>
+        <v>-1.675206545982292</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.525689122237964</v>
+        <v>-1.763124074544976</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.401417854271131</v>
+        <v>-4.60768564463433</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-7.334670838165039</v>
+        <v>-8.848879760116688</v>
       </c>
     </row>
   </sheetData>
